--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1204693.634728835</v>
+        <v>1201680.556957547</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,58 +911,58 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,76 +972,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="Y6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J7" t="n">
         <v>6.876045741711437</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="G8" t="n">
-        <v>17.47076251934584</v>
+        <v>17.47076251934605</v>
       </c>
       <c r="H8" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="I8" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>17.47076251934605</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.47076251934584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="R10" t="n">
-        <v>17.47076251934584</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.47076251934605</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634817</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>152.7930947071595</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>282.5819875862914</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.1408718643861</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>20.99717886454792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.5812122224572</v>
       </c>
       <c r="U11" t="n">
         <v>250.9524670740652</v>
@@ -1467,7 +1467,7 @@
         <v>86.83844453323542</v>
       </c>
       <c r="I12" t="n">
-        <v>8.983575426612518</v>
+        <v>8.98357542661256</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>61.03550403051482</v>
       </c>
       <c r="G13" t="n">
-        <v>10.72284786041041</v>
+        <v>165.786358994408</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.6260932706975</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.15152797925963</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.16564300812432</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.5960776925607</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.525847872792</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1987773366336</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349723</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352923</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>111.3598553131481</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>85.03713344433805</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1895,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>148.9055307001846</v>
+        <v>148.9055307001832</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>49.82219399891331</v>
       </c>
       <c r="G19" t="n">
-        <v>151.9411426383985</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440902</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337162</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.32106446352955</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2257,7 +2257,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>243.5754984440735</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>27.34976602775372</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2530,13 +2530,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>122.7627866269609</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>273.1664845643763</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>91.23885045891188</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
@@ -2731,7 +2731,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>131.0940703283811</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>8.099360810322628</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>127.6429814757079</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>163.6545692316785</v>
       </c>
       <c r="D34" t="n">
-        <v>9.406212201673183</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>79.00265633480988</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.5378502860627</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C37" t="n">
         <v>163.6545692316785</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.9498010102176</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>12.19176006100666</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>163.6545692316785</v>
       </c>
       <c r="D40" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>161.9498010102176</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8617379250046</v>
+        <v>117.5030929737315</v>
       </c>
       <c r="I40" t="n">
-        <v>63.49460006997498</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58849972413424</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>177.7462364915096</v>
@@ -3721,13 +3721,13 @@
         <v>248.5453914568787</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X40" t="n">
         <v>222.1174035220878</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>176.239728314988</v>
       </c>
       <c r="C43" t="n">
-        <v>163.6545692316785</v>
+        <v>80.70742455627099</v>
       </c>
       <c r="D43" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>161.9498010102176</v>
       </c>
       <c r="H43" t="n">
-        <v>48.95243623396786</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S43" t="n">
         <v>177.7462364915096</v>
@@ -3958,7 +3958,7 @@
         <v>248.5453914568787</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X43" t="n">
         <v>222.1174035220878</v>
@@ -3977,22 +3977,22 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C44" t="n">
-        <v>361.6806399040583</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D44" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E44" t="n">
         <v>378.3381182053125</v>
       </c>
       <c r="F44" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G44" t="n">
         <v>406.2510241458083</v>
       </c>
       <c r="H44" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.02033873387036</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T44" t="n">
-        <v>195.6048049705249</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U44" t="n">
         <v>247.316644120697</v>
@@ -4037,10 +4037,10 @@
         <v>324.1600066031856</v>
       </c>
       <c r="W44" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X44" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y44" t="n">
         <v>382.6456867891043</v>
@@ -4135,25 +4135,25 @@
         <v>176.239728314988</v>
       </c>
       <c r="C46" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.38618505628685</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>141.828796155982</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H46" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.5884997241343</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S46" t="n">
-        <v>177.7462364915097</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T46" t="n">
         <v>213.8897425958125</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5931996814712</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V46" t="n">
-        <v>248.5453914568787</v>
+        <v>165.5982467814717</v>
       </c>
       <c r="W46" t="n">
         <v>282.9307464696417</v>
       </c>
       <c r="X46" t="n">
-        <v>222.1174035220879</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y46" t="n">
         <v>214.9924014851455</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
@@ -4568,19 +4568,19 @@
         <v>7.357368943631237</v>
       </c>
       <c r="K5" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="L5" t="n">
-        <v>7.357368943631237</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="M5" t="n">
-        <v>7.357368943631237</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="N5" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
@@ -4610,7 +4610,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="M6" t="n">
-        <v>7.357368943631237</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N6" t="n">
-        <v>14.16465422792556</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O6" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4686,10 +4686,10 @@
         <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="I7" t="n">
         <v>7.495584408540386</v>
@@ -4726,19 +4726,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M7" t="n">
-        <v>7.082327113962777</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N7" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O7" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
@@ -4759,16 +4759,16 @@
         <v>20.55868221764227</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="C8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="D8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="E8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="F8" t="n">
-        <v>59.30496731307595</v>
+        <v>59.30496731307663</v>
       </c>
       <c r="G8" t="n">
-        <v>41.65773244504985</v>
+        <v>41.65773244505031</v>
       </c>
       <c r="H8" t="n">
-        <v>21.62227051495661</v>
+        <v>21.62227051495686</v>
       </c>
       <c r="I8" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="J8" t="n">
-        <v>21.22356482254776</v>
+        <v>21.223564822548</v>
       </c>
       <c r="K8" t="n">
-        <v>21.22356482254776</v>
+        <v>40.0669167678009</v>
       </c>
       <c r="L8" t="n">
-        <v>21.22356482254776</v>
+        <v>40.0669167678009</v>
       </c>
       <c r="M8" t="n">
-        <v>21.22356482254776</v>
+        <v>40.0669167678009</v>
       </c>
       <c r="N8" t="n">
-        <v>40.06691676780044</v>
+        <v>40.0669167678009</v>
       </c>
       <c r="O8" t="n">
-        <v>59.70367300548481</v>
+        <v>40.0669167678009</v>
       </c>
       <c r="P8" t="n">
-        <v>59.70367300548481</v>
+        <v>59.7036730054855</v>
       </c>
       <c r="Q8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="R8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="S8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="T8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="U8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="V8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="W8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="X8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="Y8" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.65773244504985</v>
+        <v>39.26950538298317</v>
       </c>
       <c r="C9" t="n">
-        <v>41.65773244504985</v>
+        <v>21.62227051495686</v>
       </c>
       <c r="D9" t="n">
-        <v>41.65773244504985</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="E9" t="n">
-        <v>41.65773244504985</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="F9" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="G9" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="H9" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="I9" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="J9" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="K9" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="L9" t="n">
-        <v>1.826653810386853</v>
+        <v>1.826653810387068</v>
       </c>
       <c r="M9" t="n">
-        <v>21.46341004807122</v>
+        <v>21.46341004807167</v>
       </c>
       <c r="N9" t="n">
-        <v>41.1001662857556</v>
+        <v>41.10016628575626</v>
       </c>
       <c r="O9" t="n">
-        <v>59.70367300548481</v>
+        <v>60.73692252344085</v>
       </c>
       <c r="P9" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="R9" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="S9" t="n">
-        <v>59.30496731307595</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="T9" t="n">
-        <v>59.30496731307595</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="U9" t="n">
-        <v>59.30496731307595</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="V9" t="n">
-        <v>59.30496731307595</v>
+        <v>59.30496731307663</v>
       </c>
       <c r="W9" t="n">
-        <v>59.30496731307595</v>
+        <v>59.30496731307663</v>
       </c>
       <c r="X9" t="n">
-        <v>59.30496731307595</v>
+        <v>59.30496731307663</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.65773244504985</v>
+        <v>59.30496731307663</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="C10" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="D10" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="E10" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="F10" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="G10" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="H10" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="I10" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="J10" t="n">
-        <v>1.586808584863384</v>
+        <v>1.586808584863402</v>
       </c>
       <c r="K10" t="n">
-        <v>21.22356482254776</v>
+        <v>21.223564822548</v>
       </c>
       <c r="L10" t="n">
-        <v>40.86032106023213</v>
+        <v>40.0669167678009</v>
       </c>
       <c r="M10" t="n">
-        <v>59.70367300548481</v>
+        <v>40.0669167678009</v>
       </c>
       <c r="N10" t="n">
-        <v>79.34042924316918</v>
+        <v>40.0669167678009</v>
       </c>
       <c r="O10" t="n">
-        <v>79.34042924316918</v>
+        <v>59.7036730054855</v>
       </c>
       <c r="P10" t="n">
-        <v>79.34042924316918</v>
+        <v>79.34042924317009</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.30496731307595</v>
+        <v>59.30496731307663</v>
       </c>
       <c r="R10" t="n">
-        <v>41.65773244504985</v>
+        <v>59.30496731307663</v>
       </c>
       <c r="S10" t="n">
-        <v>21.62227051495661</v>
+        <v>59.30496731307663</v>
       </c>
       <c r="T10" t="n">
-        <v>21.62227051495661</v>
+        <v>59.30496731307663</v>
       </c>
       <c r="U10" t="n">
-        <v>21.62227051495661</v>
+        <v>59.30496731307663</v>
       </c>
       <c r="V10" t="n">
-        <v>21.62227051495661</v>
+        <v>39.26950538298317</v>
       </c>
       <c r="W10" t="n">
-        <v>21.62227051495661</v>
+        <v>19.23404345288971</v>
       </c>
       <c r="X10" t="n">
-        <v>21.62227051495661</v>
+        <v>19.23404345288971</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.62227051495661</v>
+        <v>1.586808584863402</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.968571734845</v>
+        <v>1685.351185651553</v>
       </c>
       <c r="C11" t="n">
-        <v>1520.006054794433</v>
+        <v>1316.388668711142</v>
       </c>
       <c r="D11" t="n">
-        <v>1161.740356187683</v>
+        <v>958.1229701043911</v>
       </c>
       <c r="E11" t="n">
-        <v>775.952103589439</v>
+        <v>803.78651080423</v>
       </c>
       <c r="F11" t="n">
-        <v>364.9661987998315</v>
+        <v>392.8006060146225</v>
       </c>
       <c r="G11" t="n">
-        <v>79.52984770256795</v>
+        <v>392.8006060146225</v>
       </c>
       <c r="H11" t="n">
-        <v>79.52984770256795</v>
+        <v>100.7391192829194</v>
       </c>
       <c r="I11" t="n">
-        <v>79.52984770256795</v>
+        <v>79.52984770256792</v>
       </c>
       <c r="J11" t="n">
-        <v>313.2624596893701</v>
+        <v>313.2624596893702</v>
       </c>
       <c r="K11" t="n">
-        <v>714.3055743743656</v>
+        <v>714.3055743743653</v>
       </c>
       <c r="L11" t="n">
-        <v>1248.736782657056</v>
+        <v>1248.736782657055</v>
       </c>
       <c r="M11" t="n">
-        <v>1875.06391318525</v>
+        <v>1875.063913185249</v>
       </c>
       <c r="N11" t="n">
-        <v>2516.139479869078</v>
+        <v>2516.139479869077</v>
       </c>
       <c r="O11" t="n">
-        <v>3108.153697478338</v>
+        <v>3108.153697478337</v>
       </c>
       <c r="P11" t="n">
-        <v>3578.923134615888</v>
+        <v>3578.923134615885</v>
       </c>
       <c r="Q11" t="n">
-        <v>3884.278629635251</v>
+        <v>3884.278629635249</v>
       </c>
       <c r="R11" t="n">
-        <v>3976.492385128397</v>
+        <v>3976.492385128396</v>
       </c>
       <c r="S11" t="n">
-        <v>3976.492385128397</v>
+        <v>3976.492385128396</v>
       </c>
       <c r="T11" t="n">
-        <v>3976.492385128397</v>
+        <v>3772.874999045106</v>
       </c>
       <c r="U11" t="n">
-        <v>3723.005044649543</v>
+        <v>3519.387658566252</v>
       </c>
       <c r="V11" t="n">
-        <v>3391.942157305973</v>
+        <v>3188.324771222681</v>
       </c>
       <c r="W11" t="n">
-        <v>3039.173502035858</v>
+        <v>2835.556115952567</v>
       </c>
       <c r="X11" t="n">
-        <v>2665.707743774778</v>
+        <v>2462.090357691488</v>
       </c>
       <c r="Y11" t="n">
-        <v>2275.568411798967</v>
+        <v>2071.951025715676</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.3197668539295</v>
       </c>
       <c r="H12" t="n">
-        <v>88.60416631530786</v>
+        <v>88.60416631530788</v>
       </c>
       <c r="I12" t="n">
-        <v>79.52984770256795</v>
+        <v>79.52984770256792</v>
       </c>
       <c r="J12" t="n">
-        <v>79.52984770256795</v>
+        <v>199.9215432162221</v>
       </c>
       <c r="K12" t="n">
-        <v>79.52984770256795</v>
+        <v>483.8449512811126</v>
       </c>
       <c r="L12" t="n">
-        <v>455.9282464345639</v>
+        <v>911.9375529043223</v>
       </c>
       <c r="M12" t="n">
-        <v>974.8489888775681</v>
+        <v>1430.858295347326</v>
       </c>
       <c r="N12" t="n">
-        <v>1521.912664191926</v>
+        <v>1977.921970661683</v>
       </c>
       <c r="O12" t="n">
         <v>2000.149254341687</v>
       </c>
       <c r="P12" t="n">
-        <v>2364.643213776147</v>
+        <v>2364.643213776148</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.378576490964</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406.1871375833448</v>
+        <v>711.6978329283332</v>
       </c>
       <c r="C13" t="n">
-        <v>237.2509546554379</v>
+        <v>542.7616500004265</v>
       </c>
       <c r="D13" t="n">
-        <v>237.2509546554379</v>
+        <v>542.7616500004265</v>
       </c>
       <c r="E13" t="n">
-        <v>237.2509546554379</v>
+        <v>542.7616500004265</v>
       </c>
       <c r="F13" t="n">
-        <v>90.36100715752758</v>
+        <v>481.1096257271792</v>
       </c>
       <c r="G13" t="n">
-        <v>79.52984770256795</v>
+        <v>313.6486570459589</v>
       </c>
       <c r="H13" t="n">
-        <v>79.52984770256795</v>
+        <v>169.5818961664665</v>
       </c>
       <c r="I13" t="n">
-        <v>79.52984770256795</v>
+        <v>79.52984770256792</v>
       </c>
       <c r="J13" t="n">
-        <v>141.4122525280654</v>
+        <v>141.4122525280653</v>
       </c>
       <c r="K13" t="n">
-        <v>372.9408898935577</v>
+        <v>372.9408898935575</v>
       </c>
       <c r="L13" t="n">
-        <v>724.7442678044432</v>
+        <v>724.7442678044429</v>
       </c>
       <c r="M13" t="n">
-        <v>1106.060726432608</v>
+        <v>1106.060726432607</v>
       </c>
       <c r="N13" t="n">
         <v>1483.744948380639</v>
@@ -5215,34 +5215,34 @@
         <v>1816.581161797887</v>
       </c>
       <c r="P13" t="n">
-        <v>2077.859359380112</v>
+        <v>2077.859359380111</v>
       </c>
       <c r="Q13" t="n">
         <v>2175.319760120376</v>
       </c>
       <c r="R13" t="n">
-        <v>2096.364565162675</v>
+        <v>2175.319760120376</v>
       </c>
       <c r="S13" t="n">
-        <v>1908.893779614634</v>
+        <v>2175.319760120376</v>
       </c>
       <c r="T13" t="n">
-        <v>1688.160599945147</v>
+        <v>2175.319760120376</v>
       </c>
       <c r="U13" t="n">
-        <v>1399.07092586774</v>
+        <v>1886.230086042968</v>
       </c>
       <c r="V13" t="n">
-        <v>1144.386437661853</v>
+        <v>1631.545597837081</v>
       </c>
       <c r="W13" t="n">
-        <v>854.9692676248923</v>
+        <v>1342.12842780012</v>
       </c>
       <c r="X13" t="n">
-        <v>626.9797167268749</v>
+        <v>1114.138876902103</v>
       </c>
       <c r="Y13" t="n">
-        <v>406.1871375833448</v>
+        <v>893.346297758573</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874797</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5343,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220739</v>
+        <v>948.2686446216945</v>
       </c>
       <c r="C16" t="n">
-        <v>381.5742876855605</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="D16" t="n">
-        <v>381.5742876855605</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E16" t="n">
-        <v>381.5742876855605</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876502</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608054</v>
+        <v>175.4425088264936</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136709</v>
+        <v>2122.800897736329</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1868.116409530442</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1578.699239493482</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958438</v>
+        <v>1350.709688595464</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523136</v>
+        <v>1129.917109451934</v>
       </c>
     </row>
     <row r="17">
@@ -5504,52 +5504,52 @@
         <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872368</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128763</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100994</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
         <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476971</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
         <v>3467.429399206857</v>
@@ -5586,31 +5586,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>914.0526986331906</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1506.071052885318</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>2128.167016284654</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q18" t="n">
         <v>2552.77562977024</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>934.5303514512217</v>
+        <v>561.9183350635722</v>
       </c>
       <c r="C19" t="n">
-        <v>765.5941685233147</v>
+        <v>392.9821521356656</v>
       </c>
       <c r="D19" t="n">
-        <v>765.5941685233147</v>
+        <v>392.9821521356656</v>
       </c>
       <c r="E19" t="n">
-        <v>617.6810749409216</v>
+        <v>392.9821521356656</v>
       </c>
       <c r="F19" t="n">
-        <v>470.7911274430112</v>
+        <v>342.6567036519148</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880633</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H19" t="n">
         <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156347</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
         <v>1238.413883213792</v>
@@ -5695,28 +5695,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.3462391076</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>2177.3462391076</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1888.270025422326</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V19" t="n">
-        <v>1633.58553721644</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W19" t="n">
-        <v>1344.168367179479</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X19" t="n">
-        <v>1116.178816281461</v>
+        <v>964.359379037342</v>
       </c>
       <c r="Y19" t="n">
-        <v>1116.178816281461</v>
+        <v>743.5667998938119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905845</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965433</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
         <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2220959708307</v>
+        <v>793.2220959708297</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872372</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L20" t="n">
         <v>1461.457663018651</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4605.913419421675</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>4404.704271100994</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820543</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476973</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206858</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969967</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
         <v>240.4596049779265</v>
@@ -5835,19 +5835,19 @@
         <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>570.9683475412853</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>733.6583989593863</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N21" t="n">
-        <v>1355.754362358723</v>
+        <v>1683.796643784373</v>
       </c>
       <c r="O21" t="n">
-        <v>1902.630837358917</v>
+        <v>2230.673118784567</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
         <v>2552.77562977024</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.385284034031</v>
+        <v>718.7478115233711</v>
       </c>
       <c r="C22" t="n">
-        <v>929.4491011061236</v>
+        <v>549.8116285954644</v>
       </c>
       <c r="D22" t="n">
-        <v>779.3324616937879</v>
+        <v>549.8116285954644</v>
       </c>
       <c r="E22" t="n">
-        <v>631.4193681113948</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="F22" t="n">
-        <v>484.5294206134844</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G22" t="n">
-        <v>317.3152257880632</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>175.4425088264936</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
         <v>2020.132206020528</v>
@@ -5935,25 +5935,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>2140.837647083051</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U22" t="n">
-        <v>1851.761433397778</v>
+        <v>1711.631599807766</v>
       </c>
       <c r="V22" t="n">
-        <v>1597.076945191891</v>
+        <v>1456.947111601879</v>
       </c>
       <c r="W22" t="n">
-        <v>1307.659775154931</v>
+        <v>1167.529941564919</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.03374886427</v>
+        <v>939.5403906669012</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.03374886427</v>
+        <v>718.7478115233711</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
         <v>842.974607438402</v>
@@ -6005,34 +6005,34 @@
         <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>734.6951238849127</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849127</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.028458899664</v>
+        <v>763.2716312062291</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0922759717571</v>
+        <v>763.2716312062291</v>
       </c>
       <c r="D25" t="n">
-        <v>408.9756365594213</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0625429770282</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0625429770282</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
         <v>172.8304710411609</v>
@@ -6169,28 +6169,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.560712014299</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.876223808412</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.459053771451</v>
+        <v>1393.702226078016</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.469502873434</v>
+        <v>1165.712675179999</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6769237299037</v>
+        <v>944.9200960364689</v>
       </c>
     </row>
     <row r="26">
@@ -6209,61 +6209,61 @@
         <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963559</v>
       </c>
       <c r="G26" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
         <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
         <v>3095.000365871304</v>
@@ -6297,31 +6297,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>142.676769632785</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>142.676769632785</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>142.676769632785</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>734.6951238849127</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O27" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149475996</v>
       </c>
       <c r="C28" t="n">
-        <v>930.4858260316503</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="D28" t="n">
-        <v>780.3691866193145</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="E28" t="n">
-        <v>632.4560930369214</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F28" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6397,7 +6397,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P28" t="n">
         <v>2311.699365782259</v>
@@ -6409,25 +6409,25 @@
         <v>2361.553154294195</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033125</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2178.382964033125</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>2178.382964033125</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V28" t="n">
-        <v>1923.698475827238</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W28" t="n">
-        <v>1634.281305790277</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y28" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778393</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,7 +6449,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127629</v>
@@ -6473,10 +6473,10 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
         <v>4202.751434297606</v>
@@ -6488,7 +6488,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6497,16 +6497,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>572.0050724668117</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>1164.023426718939</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>1786.119390118276</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
-        <v>2332.99586511847</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.9184063975744</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9822234696675</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8655840573317</v>
+        <v>243.902237648856</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9524904749385</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6640,31 +6640,31 @@
         <v>2311.699365782259</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294195</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T31" t="n">
-        <v>2178.382964033126</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.450659512209</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.766171306322</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.349001269361</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.359450371344</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.566871227814</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9650214921445</v>
+        <v>785.9650214921443</v>
       </c>
       <c r="G32" t="n">
-        <v>375.6104516478937</v>
+        <v>375.610451647894</v>
       </c>
       <c r="H32" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322607952</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251925</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128745</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q32" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R32" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S32" t="n">
-        <v>4558.74243531022</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T32" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U32" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V32" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W32" t="n">
-        <v>3434.772564052774</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X32" t="n">
-        <v>3064.935343031037</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y32" t="n">
         <v>2678.424548294566</v>
@@ -6765,40 +6765,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F33" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G33" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H33" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I33" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J33" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K33" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L33" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M33" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.428158124812</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O33" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P33" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q33" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R33" t="n">
         <v>2552.77562977024</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.1664599623973</v>
+        <v>555.1664599623969</v>
       </c>
       <c r="C34" t="n">
-        <v>389.8588142738331</v>
+        <v>389.8588142738323</v>
       </c>
       <c r="D34" t="n">
-        <v>380.3575898276986</v>
+        <v>389.8588142738323</v>
       </c>
       <c r="E34" t="n">
-        <v>236.0730334846482</v>
+        <v>389.8588142738323</v>
       </c>
       <c r="F34" t="n">
-        <v>92.81162322608056</v>
+        <v>389.8588142738323</v>
       </c>
       <c r="G34" t="n">
-        <v>92.81162322608056</v>
+        <v>310.0581513093778</v>
       </c>
       <c r="H34" t="n">
-        <v>92.81162322608056</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I34" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J34" t="n">
-        <v>175.3500754639143</v>
+        <v>175.350075463914</v>
       </c>
       <c r="K34" t="n">
-        <v>438.5351317827578</v>
+        <v>438.5351317827576</v>
       </c>
       <c r="L34" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M34" t="n">
         <v>1252.639200606911</v>
@@ -6877,16 +6877,16 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q34" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R34" t="n">
         <v>2392.59560139425</v>
       </c>
       <c r="S34" t="n">
-        <v>2213.053948372524</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T34" t="n">
-        <v>1997.003703326249</v>
+        <v>1997.003703326248</v>
       </c>
       <c r="U34" t="n">
         <v>1711.556026880318</v>
@@ -6898,10 +6898,10 @@
         <v>1174.711443116156</v>
       </c>
       <c r="X34" t="n">
-        <v>950.3504294574816</v>
+        <v>950.3504294574811</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.1863875532943</v>
+        <v>733.1863875532938</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C35" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D35" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E35" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F35" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G35" t="n">
-        <v>375.6104516478937</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H35" t="n">
         <v>92.81162322608054</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q35" t="n">
         <v>4514.497374127289</v>
@@ -7014,28 +7014,28 @@
         <v>92.81162322608054</v>
       </c>
       <c r="J36" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K36" t="n">
-        <v>92.81162322608054</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L36" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M36" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O36" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P36" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q36" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R36" t="n">
         <v>2552.77562977024</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.9663367592908</v>
+        <v>555.1664599623966</v>
       </c>
       <c r="C37" t="n">
-        <v>399.6586910707266</v>
+        <v>389.8588142738324</v>
       </c>
       <c r="D37" t="n">
-        <v>399.6586910707266</v>
+        <v>243.3707121008394</v>
       </c>
       <c r="E37" t="n">
-        <v>399.6586910707266</v>
+        <v>243.3707121008394</v>
       </c>
       <c r="F37" t="n">
-        <v>256.397280812159</v>
+        <v>243.3707121008394</v>
       </c>
       <c r="G37" t="n">
-        <v>92.81162322608054</v>
+        <v>243.3707121008394</v>
       </c>
       <c r="H37" t="n">
-        <v>92.81162322608054</v>
+        <v>105.1265323786125</v>
       </c>
       <c r="I37" t="n">
         <v>92.81162322608054</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K37" t="n">
-        <v>438.5351317827579</v>
+        <v>438.5351317827577</v>
       </c>
       <c r="L37" t="n">
-        <v>829.8532792141721</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M37" t="n">
         <v>1252.639200606911</v>
@@ -7114,31 +7114,31 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q37" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R37" t="n">
-        <v>2392.595601394251</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S37" t="n">
-        <v>2213.053948372524</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T37" t="n">
         <v>1997.003703326248</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.556026880317</v>
+        <v>1711.556026880318</v>
       </c>
       <c r="V37" t="n">
-        <v>1460.500075913773</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W37" t="n">
-        <v>1174.711443116155</v>
+        <v>1174.711443116156</v>
       </c>
       <c r="X37" t="n">
-        <v>950.3504294574807</v>
+        <v>950.3504294574809</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.1863875532933</v>
+        <v>733.1863875532936</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469788</v>
       </c>
       <c r="C38" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D38" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F38" t="n">
-        <v>785.9650214921444</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G38" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608043</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L38" t="n">
         <v>1461.45766301865</v>
@@ -7187,7 +7187,7 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P38" t="n">
         <v>4150.915188021281</v>
@@ -7196,13 +7196,13 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S38" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T38" t="n">
-        <v>4361.16182422888</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U38" t="n">
         <v>4111.347032187772</v>
@@ -7211,13 +7211,13 @@
         <v>3783.912682083544</v>
       </c>
       <c r="W38" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X38" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y38" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J39" t="n">
         <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>240.4596049779265</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4596049779265</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O39" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P39" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1058.119134664202</v>
+        <v>619.3972677645527</v>
       </c>
       <c r="C40" t="n">
-        <v>892.8114889756382</v>
+        <v>454.0896220759884</v>
       </c>
       <c r="D40" t="n">
-        <v>746.3233868026452</v>
+        <v>454.0896220759884</v>
       </c>
       <c r="E40" t="n">
-        <v>602.0388304595948</v>
+        <v>454.0896220759884</v>
       </c>
       <c r="F40" t="n">
-        <v>458.7774202010272</v>
+        <v>454.0896220759884</v>
       </c>
       <c r="G40" t="n">
-        <v>295.1917626149488</v>
+        <v>290.50396448991</v>
       </c>
       <c r="H40" t="n">
-        <v>156.9475828927219</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J40" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K40" t="n">
-        <v>438.5351317827578</v>
+        <v>438.5351317827577</v>
       </c>
       <c r="L40" t="n">
         <v>829.8532792141718</v>
@@ -7351,31 +7351,31 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q40" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="R40" t="n">
-        <v>2392.59560139425</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="S40" t="n">
-        <v>2213.053948372523</v>
+        <v>2277.284756174679</v>
       </c>
       <c r="T40" t="n">
-        <v>1997.003703326249</v>
+        <v>2061.234511128404</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.556026880318</v>
+        <v>1775.786834682473</v>
       </c>
       <c r="V40" t="n">
-        <v>1460.500075913774</v>
+        <v>1524.730883715929</v>
       </c>
       <c r="W40" t="n">
-        <v>1460.500075913774</v>
+        <v>1238.942250918312</v>
       </c>
       <c r="X40" t="n">
-        <v>1236.139062255099</v>
+        <v>1014.581237259637</v>
       </c>
       <c r="Y40" t="n">
-        <v>1236.139062255099</v>
+        <v>797.4171953554496</v>
       </c>
     </row>
     <row r="41">
@@ -7400,52 +7400,52 @@
         <v>785.9650214921453</v>
       </c>
       <c r="G41" t="n">
-        <v>375.6104516478945</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608134</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S41" t="n">
-        <v>4558.74243531022</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T41" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U41" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V41" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W41" t="n">
         <v>3434.772564052773</v>
@@ -7476,37 +7476,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G42" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J42" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M42" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>1355.754362358723</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O42" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
         <v>2552.77562977024</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>905.1859005621707</v>
+        <v>555.1664599623975</v>
       </c>
       <c r="C43" t="n">
-        <v>739.8782548736065</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="D43" t="n">
-        <v>593.3901527006133</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="E43" t="n">
-        <v>449.1055963575628</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="F43" t="n">
-        <v>305.8441860989952</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="G43" t="n">
-        <v>142.2585285129168</v>
+        <v>310.0581513093778</v>
       </c>
       <c r="H43" t="n">
-        <v>92.81162322608056</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J43" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639141</v>
       </c>
       <c r="K43" t="n">
-        <v>438.5351317827581</v>
+        <v>438.5351317827576</v>
       </c>
       <c r="L43" t="n">
-        <v>829.8532792141722</v>
+        <v>829.8532792141715</v>
       </c>
       <c r="M43" t="n">
         <v>1252.639200606911</v>
@@ -7591,28 +7591,28 @@
         <v>2456.826409196407</v>
       </c>
       <c r="R43" t="n">
-        <v>2456.826409196407</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S43" t="n">
-        <v>2277.284756174679</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T43" t="n">
-        <v>2061.234511128404</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U43" t="n">
-        <v>1775.786834682473</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V43" t="n">
-        <v>1524.73088371593</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W43" t="n">
-        <v>1524.73088371593</v>
+        <v>1174.711443116156</v>
       </c>
       <c r="X43" t="n">
-        <v>1300.369870057255</v>
+        <v>950.3504294574817</v>
       </c>
       <c r="Y43" t="n">
-        <v>1083.205828153068</v>
+        <v>733.1863875532945</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F44" t="n">
-        <v>785.9650214921446</v>
+        <v>785.9650214921445</v>
       </c>
       <c r="G44" t="n">
         <v>375.6104516478937</v>
@@ -7643,31 +7643,31 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322607952</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251925</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128745</v>
+        <v>841.9378825128742</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R44" t="n">
         <v>4640.581161304027</v>
@@ -7737,13 +7737,13 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>2275.814998036501</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O45" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q45" t="n">
         <v>2552.77562977024</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.1664599623958</v>
+        <v>638.9514545840204</v>
       </c>
       <c r="C46" t="n">
-        <v>389.8588142738316</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="D46" t="n">
-        <v>389.8588142738316</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="E46" t="n">
-        <v>374.3172132068751</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="F46" t="n">
-        <v>231.0558029483075</v>
+        <v>473.6438088954562</v>
       </c>
       <c r="G46" t="n">
-        <v>231.0558029483075</v>
+        <v>310.0581513093778</v>
       </c>
       <c r="H46" t="n">
-        <v>92.81162322608054</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I46" t="n">
         <v>92.81162322608054</v>
       </c>
       <c r="J46" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K46" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L46" t="n">
-        <v>829.8532792141716</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M46" t="n">
         <v>1252.639200606911</v>
       </c>
       <c r="N46" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O46" t="n">
         <v>2041.470182110207</v>
@@ -7837,19 +7837,19 @@
         <v>1997.003703326248</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.556026880317</v>
+        <v>1711.556026880318</v>
       </c>
       <c r="V46" t="n">
-        <v>1460.500075913773</v>
+        <v>1544.285070535397</v>
       </c>
       <c r="W46" t="n">
-        <v>1174.711443116155</v>
+        <v>1258.496437737779</v>
       </c>
       <c r="X46" t="n">
-        <v>950.35042945748</v>
+        <v>1034.135424079104</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.1863875532929</v>
+        <v>816.9713821749174</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>130.2566731616615</v>
+        <v>130.2566731616617</v>
       </c>
       <c r="K2" t="n">
-        <v>143.9699589788379</v>
+        <v>143.9699589788382</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3329578806498</v>
+        <v>141.3329578806502</v>
       </c>
       <c r="M2" t="n">
-        <v>125.2708168361752</v>
+        <v>125.2708168361757</v>
       </c>
       <c r="N2" t="n">
-        <v>122.6374171153197</v>
+        <v>122.6374171153202</v>
       </c>
       <c r="O2" t="n">
-        <v>129.2729962502842</v>
+        <v>129.2729962502847</v>
       </c>
       <c r="P2" t="n">
-        <v>145.1810072802726</v>
+        <v>145.181007280273</v>
       </c>
       <c r="Q2" t="n">
-        <v>157.6842302527193</v>
+        <v>157.6842302527196</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>96.5879084067254</v>
+        <v>96.58790840672553</v>
       </c>
       <c r="K3" t="n">
-        <v>86.13985236388322</v>
+        <v>86.13985236388345</v>
       </c>
       <c r="L3" t="n">
-        <v>69.03521621001235</v>
+        <v>69.03521621001266</v>
       </c>
       <c r="M3" t="n">
-        <v>61.00844904309868</v>
+        <v>61.00844904309903</v>
       </c>
       <c r="N3" t="n">
-        <v>48.06897436938046</v>
+        <v>48.06897436938081</v>
       </c>
       <c r="O3" t="n">
-        <v>66.41795808601006</v>
+        <v>66.41795808601039</v>
       </c>
       <c r="P3" t="n">
-        <v>72.83461661532723</v>
+        <v>72.83461661532749</v>
       </c>
       <c r="Q3" t="n">
-        <v>99.1114430782999</v>
+        <v>99.11144307830008</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>97.82706551742686</v>
+        <v>97.827065517427</v>
       </c>
       <c r="L4" t="n">
-        <v>94.97708671559377</v>
+        <v>94.97708671559394</v>
       </c>
       <c r="M4" t="n">
-        <v>96.84882620757764</v>
+        <v>96.84882620757783</v>
       </c>
       <c r="N4" t="n">
-        <v>86.60908273363881</v>
+        <v>86.60908273363899</v>
       </c>
       <c r="O4" t="n">
-        <v>100.5157776247276</v>
+        <v>100.5157776247278</v>
       </c>
       <c r="P4" t="n">
-        <v>105.2631286925783</v>
+        <v>105.2631286925784</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,22 +8216,22 @@
         <v>103.6209668535709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.74452968173479</v>
+        <v>100.6205754234462</v>
       </c>
       <c r="L5" t="n">
-        <v>79.02387160133335</v>
+        <v>85.89991734304479</v>
       </c>
       <c r="M5" t="n">
-        <v>55.93995267482026</v>
+        <v>62.53817838656356</v>
       </c>
       <c r="N5" t="n">
-        <v>58.78293280039047</v>
+        <v>52.18470708864717</v>
       </c>
       <c r="O5" t="n">
-        <v>69.62254571745751</v>
+        <v>62.74649997574608</v>
       </c>
       <c r="P5" t="n">
-        <v>95.27822759655393</v>
+        <v>88.4021818548425</v>
       </c>
       <c r="Q5" t="n">
         <v>115.0456969704258</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>76.62853846434811</v>
+        <v>83.22676417609141</v>
       </c>
       <c r="K6" t="n">
-        <v>52.02611005068958</v>
+        <v>58.90215579240102</v>
       </c>
       <c r="L6" t="n">
-        <v>23.16507977264236</v>
+        <v>30.04112551435379</v>
       </c>
       <c r="M6" t="n">
-        <v>14.35620911696111</v>
+        <v>7.480163375249674</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>23.0300448070567</v>
+        <v>16.15399906534526</v>
       </c>
       <c r="P6" t="n">
-        <v>39.09158386408265</v>
+        <v>32.49335815233935</v>
       </c>
       <c r="Q6" t="n">
         <v>72.14438013772387</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>77.24979101494196</v>
+        <v>84.1258367566534</v>
       </c>
       <c r="L7" t="n">
-        <v>68.64525986006655</v>
+        <v>75.52130560177798</v>
       </c>
       <c r="M7" t="n">
-        <v>75.68383249472416</v>
+        <v>75.96165252469231</v>
       </c>
       <c r="N7" t="n">
-        <v>66.38205635482377</v>
+        <v>66.10423632485562</v>
       </c>
       <c r="O7" t="n">
-        <v>82.35774950379157</v>
+        <v>75.48170376208013</v>
       </c>
       <c r="P7" t="n">
-        <v>90.71819947489547</v>
+        <v>83.84215373318403</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>99.4791150086868</v>
+        <v>99.4791150086869</v>
       </c>
       <c r="K8" t="n">
-        <v>68.11469342869259</v>
+        <v>87.14838226228119</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22779338428427</v>
+        <v>47.22779338428401</v>
       </c>
       <c r="M8" t="n">
-        <v>20.56068920996961</v>
+        <v>20.56068920996933</v>
       </c>
       <c r="N8" t="n">
-        <v>35.26665898664262</v>
+        <v>16.23297015305377</v>
       </c>
       <c r="O8" t="n">
-        <v>48.63340156949178</v>
+        <v>28.79829425869923</v>
       </c>
       <c r="P8" t="n">
-        <v>59.42817369484106</v>
+        <v>79.26328100563336</v>
       </c>
       <c r="Q8" t="n">
         <v>113.122530805234</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>66.44335158797577</v>
+        <v>66.44335158797568</v>
       </c>
       <c r="K9" t="n">
-        <v>34.61800340627192</v>
+        <v>34.61800340627178</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.295922177059506</v>
+        <v>10.3396085588324</v>
       </c>
       <c r="P9" t="n">
-        <v>31.74248216507215</v>
+        <v>30.69879578329913</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.38319547359774</v>
+        <v>58.38319547359762</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>86.584397216767</v>
+        <v>86.58439721676714</v>
       </c>
       <c r="L10" t="n">
-        <v>75.0433409473807</v>
+        <v>74.24192247017709</v>
       </c>
       <c r="M10" t="n">
-        <v>73.95183547400899</v>
+        <v>54.9181466404203</v>
       </c>
       <c r="N10" t="n">
-        <v>65.51052831770384</v>
+        <v>45.67542100691144</v>
       </c>
       <c r="O10" t="n">
-        <v>62.70691571495783</v>
+        <v>82.54202302575024</v>
       </c>
       <c r="P10" t="n">
-        <v>72.91111564604003</v>
+        <v>92.74622295683247</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10121,13 +10121,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>229.1372753651023</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>127.8059270067022</v>
+        <v>410.3879145929936</v>
       </c>
       <c r="H11" t="n">
-        <v>289.1408718643861</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.99717886454783</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.02354224794715</v>
+        <v>97.0235422479472</v>
       </c>
       <c r="T11" t="n">
-        <v>201.5812122224572</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.38554399241643</v>
       </c>
       <c r="G13" t="n">
-        <v>155.0635111339976</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.6260932706975</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.15152797925958</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.16564300812438</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.5960776925607</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.525847872792</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>50.2915261372895</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.2915261372904</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>55.88696578547973</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>201.1483181040824</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>50.2915261372895</v>
+        <v>50.2915261372909</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>95.59885402401794</v>
       </c>
       <c r="G19" t="n">
-        <v>13.60091023876845</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.29152613729006</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>42.60995310434689</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>198.3598893612834</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>163.4226649214595</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>13.35651377221464</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>76.00797063971595</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>94.61558506065604</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>138.3346018362465</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>158.5424700727125</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>135.6170089495899</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G34" t="n">
-        <v>161.9498010102176</v>
+        <v>82.94714467540773</v>
       </c>
       <c r="H34" t="n">
-        <v>136.8617379250046</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>78.21232487745971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.70187802892525</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>142.8417107796199</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8617379250046</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>78.21232487745971</v>
+        <v>66.02056481645305</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>19.35864495127315</v>
       </c>
       <c r="I40" t="n">
-        <v>14.71772480748473</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>282.9307464696417</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.9924014851455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>82.94714467540753</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>87.90930169103675</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>78.21232487745971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.58849972413424</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>282.9307464696417</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.0232211512631</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E46" t="n">
-        <v>127.4555257233331</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G46" t="n">
-        <v>161.9498010102177</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>78.21232487745976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.947144675407</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>990015.582765696</v>
+        <v>990015.5827656961</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861530.0375767911</v>
+        <v>861530.0375767908</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>931620.9528939084</v>
+        <v>931620.9528939086</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>931620.9528939084</v>
+        <v>931620.9528939083</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>931620.9528939085</v>
+        <v>931620.9528939083</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937654.2095650343</v>
+        <v>937654.2095650344</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937654.2095650341</v>
+        <v>937654.2095650343</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>938588.3627658598</v>
+        <v>938588.3627658599</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938588.3627658599</v>
+        <v>938588.3627658598</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>938588.3627658599</v>
+        <v>938588.3627658598</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>938588.3627658598</v>
+        <v>938588.3627658599</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>938588.3627658598</v>
+        <v>938588.3627658599</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>491594.3832527856</v>
       </c>
       <c r="C2" t="n">
-        <v>492270.0408133153</v>
+        <v>492270.0408133152</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
         <v>445038.6897738876</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828184</v>
+        <v>481607.8629828186</v>
       </c>
       <c r="G2" t="n">
-        <v>481607.8629828186</v>
+        <v>481607.8629828185</v>
       </c>
       <c r="H2" t="n">
         <v>481607.8629828184</v>
@@ -26335,25 +26335,25 @@
         <v>484009.7862711354</v>
       </c>
       <c r="J2" t="n">
-        <v>484009.7862711354</v>
+        <v>484009.7862711353</v>
       </c>
       <c r="K2" t="n">
         <v>484009.7862711354</v>
       </c>
       <c r="L2" t="n">
-        <v>485243.0333507931</v>
+        <v>485243.033350793</v>
       </c>
       <c r="M2" t="n">
+        <v>485243.033350793</v>
+      </c>
+      <c r="N2" t="n">
+        <v>485243.0333507928</v>
+      </c>
+      <c r="O2" t="n">
         <v>485243.0333507929</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>485243.0333507929</v>
-      </c>
-      <c r="O2" t="n">
-        <v>485243.0333507931</v>
-      </c>
-      <c r="P2" t="n">
-        <v>485243.0333507931</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143437.9233429916</v>
+        <v>143437.923342991</v>
       </c>
       <c r="C3" t="n">
-        <v>91658.07998119095</v>
+        <v>91658.07998119155</v>
       </c>
       <c r="D3" t="n">
-        <v>46948.73977101272</v>
+        <v>46948.73977101313</v>
       </c>
       <c r="E3" t="n">
-        <v>1034346.890723874</v>
+        <v>1034346.890723873</v>
       </c>
       <c r="F3" t="n">
-        <v>154658.2522560898</v>
+        <v>154658.2522560905</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1769.674140452701</v>
+        <v>1769.674140452818</v>
       </c>
       <c r="L3" t="n">
         <v>2873.801493559451</v>
       </c>
       <c r="M3" t="n">
-        <v>242796.4640036056</v>
+        <v>242796.4640036054</v>
       </c>
       <c r="N3" t="n">
-        <v>40663.31792059204</v>
+        <v>40663.31792059226</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385587.0237565584</v>
+        <v>385587.0237565586</v>
       </c>
       <c r="C4" t="n">
-        <v>362927.8785931708</v>
+        <v>362927.8785931707</v>
       </c>
       <c r="D4" t="n">
-        <v>350462.6726518968</v>
+        <v>350462.6726518967</v>
       </c>
       <c r="E4" t="n">
-        <v>9244.670604077992</v>
+        <v>9244.670604077943</v>
       </c>
       <c r="F4" t="n">
         <v>9330.667735531239</v>
@@ -26436,28 +26436,28 @@
         <v>9330.667735531239</v>
       </c>
       <c r="I4" t="n">
-        <v>10766.36483420048</v>
+        <v>10766.36483420047</v>
       </c>
       <c r="J4" t="n">
-        <v>10766.36483420052</v>
+        <v>10766.36483420047</v>
       </c>
       <c r="K4" t="n">
-        <v>10766.36483420048</v>
+        <v>10766.36483420047</v>
       </c>
       <c r="L4" t="n">
         <v>12797.59550654312</v>
       </c>
       <c r="M4" t="n">
+        <v>12797.59550654311</v>
+      </c>
+      <c r="N4" t="n">
         <v>12797.59550654313</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>12797.59550654313</v>
+      </c>
+      <c r="P4" t="n">
         <v>12797.59550654312</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12797.59550654311</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12797.59550654305</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36872.62339515678</v>
+        <v>36872.62339515677</v>
       </c>
       <c r="C5" t="n">
         <v>39431.8184029668</v>
       </c>
       <c r="D5" t="n">
-        <v>41312.3401738086</v>
+        <v>41312.34017380862</v>
       </c>
       <c r="E5" t="n">
-        <v>87094.54025499415</v>
+        <v>87094.54025499412</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26488,10 +26488,10 @@
         <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74303.18724192117</v>
+        <v>-74307.48173636151</v>
       </c>
       <c r="C6" t="n">
-        <v>-1747.736164013295</v>
+        <v>-1749.215418619105</v>
       </c>
       <c r="D6" t="n">
-        <v>53901.30932185167</v>
+        <v>53901.30932185141</v>
       </c>
       <c r="E6" t="n">
-        <v>-685647.4118090582</v>
+        <v>-685845.6883596601</v>
       </c>
       <c r="F6" t="n">
-        <v>217476.8144773591</v>
+        <v>217430.9094817928</v>
       </c>
       <c r="G6" t="n">
-        <v>372135.0667334489</v>
+        <v>372089.1617378833</v>
       </c>
       <c r="H6" t="n">
-        <v>372135.0667334488</v>
+        <v>372089.1617378831</v>
       </c>
       <c r="I6" t="n">
-        <v>368867.2953681847</v>
+        <v>368831.3983863205</v>
       </c>
       <c r="J6" t="n">
-        <v>372313.3819796963</v>
+        <v>372277.484997832</v>
       </c>
       <c r="K6" t="n">
-        <v>370543.7078392437</v>
+        <v>370507.8108573793</v>
       </c>
       <c r="L6" t="n">
-        <v>369127.5108146495</v>
+        <v>369096.7523622837</v>
       </c>
       <c r="M6" t="n">
-        <v>129204.8483046032</v>
+        <v>129174.0898522377</v>
       </c>
       <c r="N6" t="n">
-        <v>331337.9943876169</v>
+        <v>331307.2359352507</v>
       </c>
       <c r="O6" t="n">
-        <v>372001.3123082089</v>
+        <v>371970.5538558432</v>
       </c>
       <c r="P6" t="n">
-        <v>372001.3123082091</v>
+        <v>371970.5538558431</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>3.592251866949314</v>
       </c>
       <c r="M2" t="n">
+        <v>3.592251866949314</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.592251866949312</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.592251866949314</v>
       </c>
       <c r="O2" t="n">
         <v>3.592251866949312</v>
       </c>
       <c r="P2" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.8542841815039</v>
+        <v>148.8542841815033</v>
       </c>
       <c r="C3" t="n">
         <v>247.0713221041627</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1910848308452</v>
+        <v>297.1910848308456</v>
       </c>
       <c r="E3" t="n">
         <v>1222.562201882684</v>
@@ -26793,19 +26793,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="E4" t="n">
-        <v>994.1230962820994</v>
+        <v>994.1230962820989</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1173.104351895088</v>
@@ -26823,7 +26823,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="N4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="O4" t="n">
         <v>1160.145290326007</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.8542841815039</v>
+        <v>148.8542841815033</v>
       </c>
       <c r="C3" t="n">
-        <v>98.2170379226587</v>
+        <v>98.21703792265936</v>
       </c>
       <c r="D3" t="n">
-        <v>50.11976272668258</v>
+        <v>50.11976272668298</v>
       </c>
       <c r="E3" t="n">
-        <v>925.3711170518391</v>
+        <v>925.371117051838</v>
       </c>
       <c r="F3" t="n">
-        <v>135.4788468337015</v>
+        <v>135.4788468337022</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>12.95906156908086</v>
+        <v>12.95906156908109</v>
       </c>
       <c r="E4" t="n">
-        <v>974.2879889713071</v>
+        <v>974.2879889713064</v>
       </c>
       <c r="F4" t="n">
-        <v>166.0221940439073</v>
+        <v>166.022194043908</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711096</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>974.2879889713068</v>
+        <v>974.2879889713064</v>
       </c>
       <c r="N4" t="n">
-        <v>166.0221940439071</v>
+        <v>166.022194043908</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
-        <v>12.95906156908086</v>
+        <v>12.95906156908109</v>
       </c>
       <c r="M4" t="n">
-        <v>974.2879889713071</v>
+        <v>974.2879889713064</v>
       </c>
       <c r="N4" t="n">
-        <v>166.0221940439073</v>
+        <v>166.022194043908</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>333.3463440740633</v>
       </c>
       <c r="I2" t="n">
-        <v>187.4057195567077</v>
+        <v>187.4057195567078</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>112.2792971221893</v>
+        <v>112.2792971221895</v>
       </c>
       <c r="S2" t="n">
-        <v>195.3838203368543</v>
+        <v>195.3838203368544</v>
       </c>
       <c r="T2" t="n">
         <v>220.4763133671282</v>
@@ -27476,7 +27476,7 @@
         <v>109.1432071254807</v>
       </c>
       <c r="I3" t="n">
-        <v>78.37299010778483</v>
+        <v>78.37299010778489</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>80.27876578591322</v>
+        <v>80.27876578591331</v>
       </c>
       <c r="S3" t="n">
         <v>165.7360211650768</v>
@@ -27555,10 +27555,10 @@
         <v>159.8406234922017</v>
       </c>
       <c r="I4" t="n">
-        <v>147.3781803031203</v>
+        <v>147.3781803031204</v>
       </c>
       <c r="J4" t="n">
-        <v>74.38147900061448</v>
+        <v>74.38147900061456</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.68504634028729</v>
+        <v>63.68504634028739</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2239931876331</v>
+        <v>165.2239931876332</v>
       </c>
       <c r="S4" t="n">
         <v>219.338669139006</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>376.6774205741812</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.2462436294858</v>
+        <v>329.3026647187852</v>
       </c>
       <c r="I5" t="n">
-        <v>165.3075135958473</v>
+        <v>172.1835593375587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>379.3618929143421</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D6" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.8120807345338</v>
       </c>
       <c r="H6" t="n">
-        <v>101.0464660597124</v>
+        <v>107.1028871490119</v>
       </c>
       <c r="I6" t="n">
-        <v>64.22332410481989</v>
+        <v>71.09936984653133</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="7">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>161.4890198194633</v>
+        <v>167.5454409087627</v>
       </c>
       <c r="H7" t="n">
-        <v>158.2659306546876</v>
+        <v>152.2095095653882</v>
       </c>
       <c r="I7" t="n">
-        <v>142.0519186400358</v>
+        <v>135.1758728983244</v>
       </c>
       <c r="J7" t="n">
         <v>54.98356598145195</v>
@@ -27831,7 +27831,7 @@
         <v>286.2947272592347</v>
       </c>
       <c r="V7" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.0409384309191</v>
+        <v>387.0409384309189</v>
       </c>
       <c r="G8" t="n">
-        <v>396.6372369663185</v>
+        <v>396.6372369663183</v>
       </c>
       <c r="H8" t="n">
-        <v>307.4040839606577</v>
+        <v>307.4040839606574</v>
       </c>
       <c r="I8" t="n">
-        <v>144.5806443784431</v>
+        <v>144.5806443784428</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>74.82015519740864</v>
+        <v>74.82015519740854</v>
       </c>
       <c r="S8" t="n">
-        <v>181.794976739681</v>
+        <v>181.7949767396809</v>
       </c>
       <c r="T8" t="n">
         <v>217.8658838401232</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>146.6980763390748</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>155.2377364689697</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>127.6099582538462</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>125.2341050825916</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8691686510841</v>
+        <v>136.7042759618764</v>
       </c>
       <c r="H9" t="n">
         <v>106.0617200025576</v>
       </c>
       <c r="I9" t="n">
-        <v>67.38767043705531</v>
+        <v>67.38767043705528</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.4688058803276</v>
+        <v>60.46880588032754</v>
       </c>
       <c r="S9" t="n">
-        <v>139.9744388472094</v>
+        <v>159.8095461580017</v>
       </c>
       <c r="T9" t="n">
         <v>197.5881380631278</v>
@@ -27989,7 +27989,7 @@
         <v>225.8993267387818</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>212.9654798386327</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>188.2119332579585</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28029,10 +28029,10 @@
         <v>157.4623711801516</v>
       </c>
       <c r="I10" t="n">
-        <v>139.3339485564315</v>
+        <v>139.3339485564314</v>
       </c>
       <c r="J10" t="n">
-        <v>35.63464548244633</v>
+        <v>55.46975279323858</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.45108213144446</v>
+        <v>21.45108213144417</v>
       </c>
       <c r="R10" t="n">
-        <v>135.725791061539</v>
+        <v>153.1965535808849</v>
       </c>
       <c r="S10" t="n">
-        <v>194.8418954864959</v>
+        <v>214.6770027972881</v>
       </c>
       <c r="T10" t="n">
         <v>225.6557564795848</v>
@@ -28068,16 +28068,16 @@
         <v>286.2897974465075</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>232.3025360130355</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>266.6878910257985</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>201.1138908327488</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.715988390336272e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.592251866949312</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="C38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="D38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="E38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="F38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="G38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="H38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="T38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="U38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="V38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="W38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="X38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="C40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="D40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="E40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="F40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="G40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="H40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="I40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="J40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="K40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="L40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="M40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="N40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="O40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="P40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="R40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="T40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="U40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="V40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="W40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="X40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
     </row>
     <row r="41">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5984091826392114</v>
+        <v>0.5984091826392087</v>
       </c>
       <c r="H2" t="n">
-        <v>6.128458041703825</v>
+        <v>6.128458041703798</v>
       </c>
       <c r="I2" t="n">
-        <v>23.07017001369822</v>
+        <v>23.07017001369812</v>
       </c>
       <c r="J2" t="n">
-        <v>50.78923136502481</v>
+        <v>50.78923136502459</v>
       </c>
       <c r="K2" t="n">
-        <v>76.11989206614264</v>
+        <v>76.11989206614231</v>
       </c>
       <c r="L2" t="n">
-        <v>94.43345708933742</v>
+        <v>94.43345708933701</v>
       </c>
       <c r="M2" t="n">
-        <v>105.0754163910975</v>
+        <v>105.075416391097</v>
       </c>
       <c r="N2" t="n">
-        <v>106.7756464812712</v>
+        <v>106.7756464812707</v>
       </c>
       <c r="O2" t="n">
-        <v>100.8252151714025</v>
+        <v>100.8252151714021</v>
       </c>
       <c r="P2" t="n">
-        <v>86.05198847499696</v>
+        <v>86.05198847499658</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.62145962173018</v>
+        <v>64.6214596217299</v>
       </c>
       <c r="R2" t="n">
-        <v>37.5898208189604</v>
+        <v>37.58982081896023</v>
       </c>
       <c r="S2" t="n">
-        <v>13.63624924939104</v>
+        <v>13.63624924939098</v>
       </c>
       <c r="T2" t="n">
-        <v>2.619536197003149</v>
+        <v>2.619536197003137</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0478727346111369</v>
+        <v>0.04787273461113669</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.320177139560216</v>
+        <v>0.3201771395602147</v>
       </c>
       <c r="H3" t="n">
-        <v>3.092237111015771</v>
+        <v>3.092237111015757</v>
       </c>
       <c r="I3" t="n">
-        <v>11.02364274363025</v>
+        <v>11.0236427436302</v>
       </c>
       <c r="J3" t="n">
-        <v>30.24971825994129</v>
+        <v>30.24971825994116</v>
       </c>
       <c r="K3" t="n">
-        <v>51.70158661047576</v>
+        <v>51.70158661047554</v>
       </c>
       <c r="L3" t="n">
-        <v>69.51916356986183</v>
+        <v>69.51916356986152</v>
       </c>
       <c r="M3" t="n">
-        <v>81.12558487891964</v>
+        <v>81.12558487891928</v>
       </c>
       <c r="N3" t="n">
-        <v>83.27273771395285</v>
+        <v>83.27273771395249</v>
       </c>
       <c r="O3" t="n">
-        <v>76.17828635843438</v>
+        <v>76.17828635843405</v>
       </c>
       <c r="P3" t="n">
-        <v>61.13979079900302</v>
+        <v>61.13979079900275</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.87033100772162</v>
+        <v>40.87033100772143</v>
       </c>
       <c r="R3" t="n">
-        <v>19.87906836672991</v>
+        <v>19.87906836672983</v>
       </c>
       <c r="S3" t="n">
-        <v>5.947149938761027</v>
+        <v>5.947149938761</v>
       </c>
       <c r="T3" t="n">
-        <v>1.290538558139642</v>
+        <v>1.290538558139636</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02106428549738264</v>
+        <v>0.02106428549738255</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.268425758360089</v>
+        <v>0.2684257583600879</v>
       </c>
       <c r="H4" t="n">
-        <v>2.386549015237884</v>
+        <v>2.386549015237874</v>
       </c>
       <c r="I4" t="n">
-        <v>8.072294624137953</v>
+        <v>8.072294624137918</v>
       </c>
       <c r="J4" t="n">
-        <v>18.9777011160583</v>
+        <v>18.97770111605821</v>
       </c>
       <c r="K4" t="n">
-        <v>31.18619265310852</v>
+        <v>31.18619265310839</v>
       </c>
       <c r="L4" t="n">
-        <v>39.90758956564452</v>
+        <v>39.90758956564434</v>
       </c>
       <c r="M4" t="n">
-        <v>42.07695774002741</v>
+        <v>42.07695774002723</v>
       </c>
       <c r="N4" t="n">
-        <v>41.07646173159439</v>
+        <v>41.0764617315942</v>
       </c>
       <c r="O4" t="n">
-        <v>37.94076082711515</v>
+        <v>37.94076082711498</v>
       </c>
       <c r="P4" t="n">
-        <v>32.4648753565693</v>
+        <v>32.46487535656916</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.4769969114071</v>
+        <v>22.476996911407</v>
       </c>
       <c r="R4" t="n">
-        <v>12.06939818953636</v>
+        <v>12.06939818953631</v>
       </c>
       <c r="S4" t="n">
-        <v>4.677928897966278</v>
+        <v>4.677928897966257</v>
       </c>
       <c r="T4" t="n">
-        <v>1.146910058447653</v>
+        <v>1.146910058447648</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01464140500145942</v>
+        <v>0.01464140500145935</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.194738029470734</v>
+        <v>1.194738029470735</v>
       </c>
       <c r="H8" t="n">
-        <v>12.23561084431715</v>
+        <v>12.23561084431717</v>
       </c>
       <c r="I8" t="n">
-        <v>46.0601378811705</v>
+        <v>46.06013788117057</v>
       </c>
       <c r="J8" t="n">
-        <v>101.4018968287918</v>
+        <v>101.4018968287919</v>
       </c>
       <c r="K8" t="n">
-        <v>151.975157616288</v>
+        <v>151.9751576162882</v>
       </c>
       <c r="L8" t="n">
-        <v>188.538621585703</v>
+        <v>188.5386215857032</v>
       </c>
       <c r="M8" t="n">
-        <v>209.7855440173031</v>
+        <v>209.7855440173034</v>
       </c>
       <c r="N8" t="n">
-        <v>213.1800934435369</v>
+        <v>213.1800934435371</v>
       </c>
       <c r="O8" t="n">
-        <v>201.2999171629872</v>
+        <v>201.2999171629875</v>
       </c>
       <c r="P8" t="n">
-        <v>171.8048220604285</v>
+        <v>171.8048220604287</v>
       </c>
       <c r="Q8" t="n">
-        <v>129.0182663800078</v>
+        <v>129.018266380008</v>
       </c>
       <c r="R8" t="n">
-        <v>75.04896274374104</v>
+        <v>75.04896274374114</v>
       </c>
       <c r="S8" t="n">
-        <v>27.22509284656437</v>
+        <v>27.22509284656441</v>
       </c>
       <c r="T8" t="n">
-        <v>5.22996572400814</v>
+        <v>5.229965724008147</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09557904235765867</v>
+        <v>0.09557904235765881</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6392412013342709</v>
+        <v>0.6392412013342718</v>
       </c>
       <c r="H9" t="n">
-        <v>6.173724233938881</v>
+        <v>6.173724233938889</v>
       </c>
       <c r="I9" t="n">
-        <v>22.00896241435977</v>
+        <v>22.0089624143598</v>
       </c>
       <c r="J9" t="n">
-        <v>60.39427507869092</v>
+        <v>60.39427507869101</v>
       </c>
       <c r="K9" t="n">
-        <v>103.2234355680871</v>
+        <v>103.2234355680872</v>
       </c>
       <c r="L9" t="n">
-        <v>138.7966476844433</v>
+        <v>138.7966476844435</v>
       </c>
       <c r="M9" t="n">
-        <v>161.9691412328106</v>
+        <v>161.9691412328108</v>
       </c>
       <c r="N9" t="n">
-        <v>151.1768193941256</v>
+        <v>151.1768193941258</v>
       </c>
       <c r="O9" t="n">
-        <v>152.0917431964043</v>
+        <v>152.0917431964046</v>
       </c>
       <c r="P9" t="n">
-        <v>122.0670325600504</v>
+        <v>122.0670325600505</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.59857861242378</v>
+        <v>81.59857861242389</v>
       </c>
       <c r="R9" t="n">
-        <v>39.68902827231553</v>
+        <v>39.68902827231559</v>
       </c>
       <c r="S9" t="n">
-        <v>11.87362494583612</v>
+        <v>11.87362494583614</v>
       </c>
       <c r="T9" t="n">
-        <v>2.576590631693836</v>
+        <v>2.57659063169384</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04205534219304415</v>
+        <v>0.04205534219304421</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5359183496949668</v>
+        <v>0.5359183496949674</v>
       </c>
       <c r="H10" t="n">
-        <v>4.76480132728798</v>
+        <v>4.764801327287987</v>
       </c>
       <c r="I10" t="n">
-        <v>16.11652637082682</v>
+        <v>16.11652637082684</v>
       </c>
       <c r="J10" t="n">
-        <v>37.88942732343415</v>
+        <v>37.8894273234342</v>
       </c>
       <c r="K10" t="n">
-        <v>62.26396826456067</v>
+        <v>62.26396826456075</v>
       </c>
       <c r="L10" t="n">
-        <v>79.67644264464988</v>
+        <v>79.67644264465</v>
       </c>
       <c r="M10" t="n">
-        <v>84.00763730718464</v>
+        <v>84.00763730718475</v>
       </c>
       <c r="N10" t="n">
-        <v>82.01012345832164</v>
+        <v>82.01012345832176</v>
       </c>
       <c r="O10" t="n">
-        <v>75.74962273688496</v>
+        <v>75.74962273688507</v>
       </c>
       <c r="P10" t="n">
-        <v>64.81688840310758</v>
+        <v>64.81688840310767</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.87585380945763</v>
+        <v>44.87585380945769</v>
       </c>
       <c r="R10" t="n">
-        <v>24.09683779628459</v>
+        <v>24.09683779628462</v>
       </c>
       <c r="S10" t="n">
-        <v>9.339595239684099</v>
+        <v>9.339595239684112</v>
       </c>
       <c r="T10" t="n">
-        <v>2.289832948696676</v>
+        <v>2.289832948696679</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02923190998336186</v>
+        <v>0.0292319099833619</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.914822922141441</v>
+        <v>4.914822922141438</v>
       </c>
       <c r="H11" t="n">
-        <v>50.33393025138104</v>
+        <v>50.33393025138102</v>
       </c>
       <c r="I11" t="n">
-        <v>189.4787107058581</v>
+        <v>189.478710705858</v>
       </c>
       <c r="J11" t="n">
-        <v>417.1394519881025</v>
+        <v>417.1394519881023</v>
       </c>
       <c r="K11" t="n">
-        <v>625.1839062823498</v>
+        <v>625.1839062823494</v>
       </c>
       <c r="L11" t="n">
-        <v>775.5959182858361</v>
+        <v>775.5959182858356</v>
       </c>
       <c r="M11" t="n">
-        <v>862.9999004274689</v>
+        <v>862.9999004274684</v>
       </c>
       <c r="N11" t="n">
-        <v>876.9641410550033</v>
+        <v>876.9641410550029</v>
       </c>
       <c r="O11" t="n">
-        <v>828.0923706229594</v>
+        <v>828.0923706229589</v>
       </c>
       <c r="P11" t="n">
-        <v>706.7576797325925</v>
+        <v>706.757679732592</v>
       </c>
       <c r="Q11" t="n">
-        <v>530.7455838334018</v>
+        <v>530.7455838334016</v>
       </c>
       <c r="R11" t="n">
-        <v>308.7307453829675</v>
+        <v>308.7307453829674</v>
       </c>
       <c r="S11" t="n">
-        <v>111.9965273382982</v>
+        <v>111.9965273382981</v>
       </c>
       <c r="T11" t="n">
-        <v>21.51463734167417</v>
+        <v>21.51463734167416</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3931858337713152</v>
+        <v>0.393185833771315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.629662094615585</v>
+        <v>2.629662094615584</v>
       </c>
       <c r="H12" t="n">
-        <v>25.39699970326105</v>
+        <v>25.39699970326104</v>
       </c>
       <c r="I12" t="n">
-        <v>90.53880457338748</v>
+        <v>90.53880457338744</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>248.445399912782</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>424.6327602520261</v>
       </c>
       <c r="L12" t="n">
-        <v>518.7547825394661</v>
+        <v>570.9711490962477</v>
       </c>
       <c r="M12" t="n">
-        <v>666.2964000260629</v>
+        <v>666.2964000260625</v>
       </c>
       <c r="N12" t="n">
-        <v>683.9312831079368</v>
+        <v>683.9312831079365</v>
       </c>
       <c r="O12" t="n">
-        <v>625.6635072219809</v>
+        <v>165.0480461414183</v>
       </c>
       <c r="P12" t="n">
-        <v>502.1501240147954</v>
+        <v>502.1501240147952</v>
       </c>
       <c r="Q12" t="n">
-        <v>335.6740596565439</v>
+        <v>335.6740596565436</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.84482004691665</v>
+        <v>48.84482004691662</v>
       </c>
       <c r="T12" t="n">
-        <v>10.59938361820931</v>
+        <v>10.5993836182093</v>
       </c>
       <c r="U12" t="n">
         <v>0.173004085172078</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.204620364050742</v>
+        <v>2.204620364050741</v>
       </c>
       <c r="H13" t="n">
-        <v>19.60107923674207</v>
+        <v>19.60107923674206</v>
       </c>
       <c r="I13" t="n">
-        <v>66.2989469479987</v>
+        <v>66.29894694799866</v>
       </c>
       <c r="J13" t="n">
-        <v>155.8666597383875</v>
+        <v>155.8666597383874</v>
       </c>
       <c r="K13" t="n">
-        <v>256.1368022960771</v>
+        <v>256.1368022960769</v>
       </c>
       <c r="L13" t="n">
-        <v>327.7669221244167</v>
+        <v>327.7669221244166</v>
       </c>
       <c r="M13" t="n">
-        <v>345.5842630666086</v>
+        <v>345.5842630666083</v>
       </c>
       <c r="N13" t="n">
-        <v>337.3670417096924</v>
+        <v>337.3670417096922</v>
       </c>
       <c r="O13" t="n">
-        <v>311.6130674569177</v>
+        <v>311.6130674569176</v>
       </c>
       <c r="P13" t="n">
-        <v>266.6388120302823</v>
+        <v>266.6388120302822</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.6068924842853</v>
+        <v>184.6068924842852</v>
       </c>
       <c r="R13" t="n">
-        <v>99.12774836904516</v>
+        <v>99.12774836904511</v>
       </c>
       <c r="S13" t="n">
-        <v>38.42052034441156</v>
+        <v>38.42052034441154</v>
       </c>
       <c r="T13" t="n">
-        <v>9.419741555489532</v>
+        <v>9.419741555489527</v>
       </c>
       <c r="U13" t="n">
         <v>0.1202520198573133</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32090,10 +32090,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238237</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
         <v>471.6886536848224</v>
@@ -32324,16 +32324,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>571.4938338238237</v>
+        <v>394.0223077997498</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,10 +32555,10 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>306.4674191928274</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927639</v>
@@ -32567,10 +32567,10 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>459.3304791170301</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,28 +32786,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>452.0271405575983</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,28 +33023,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>176.1592645264424</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O27" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,7 +33266,7 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504302</v>
@@ -33275,10 +33275,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P30" t="n">
-        <v>357.0213665833166</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>258.0817497358004</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>258.0817497358004</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33974,28 +33974,28 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>604.6315993235836</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34208,28 +34208,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>293.7647843155077</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34457,16 +34457,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O45" t="n">
-        <v>189.4642825742344</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34936,22 +34936,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="N5" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>19.03368883358879</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>19.03368883358856</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2422679045691609</v>
+        <v>0.2422679045693599</v>
       </c>
       <c r="M9" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="N9" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="O9" t="n">
-        <v>18.79142092901941</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="P9" t="n">
-        <v>19.8351073107923</v>
+        <v>18.79142092901943</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>19.8351073107923</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="L10" t="n">
-        <v>19.8351073107923</v>
+        <v>19.03368883358879</v>
       </c>
       <c r="M10" t="n">
-        <v>19.03368883358856</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>19.8351073107923</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>19.83510731079252</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>236.0935474614162</v>
+        <v>236.093547461416</v>
       </c>
       <c r="K11" t="n">
-        <v>405.0940552373692</v>
+        <v>405.0940552373689</v>
       </c>
       <c r="L11" t="n">
-        <v>539.8295033158488</v>
+        <v>539.8295033158483</v>
       </c>
       <c r="M11" t="n">
-        <v>632.6536672001962</v>
+        <v>632.6536672001957</v>
       </c>
       <c r="N11" t="n">
-        <v>647.5510774584125</v>
+        <v>647.551077458412</v>
       </c>
       <c r="O11" t="n">
-        <v>597.9941592012726</v>
+        <v>597.9941592012722</v>
       </c>
       <c r="P11" t="n">
-        <v>475.5246839773229</v>
+        <v>475.5246839773225</v>
       </c>
       <c r="Q11" t="n">
-        <v>308.4398939589523</v>
+        <v>308.4398939589521</v>
       </c>
       <c r="R11" t="n">
-        <v>93.14520756883542</v>
+        <v>93.14520756883525</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>121.6077732461153</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>286.7913212776671</v>
       </c>
       <c r="L12" t="n">
-        <v>380.2004027595918</v>
+        <v>432.4167693163735</v>
       </c>
       <c r="M12" t="n">
-        <v>524.1623661040446</v>
+        <v>524.1623661040442</v>
       </c>
       <c r="N12" t="n">
-        <v>552.5895710246035</v>
+        <v>552.5895710246032</v>
       </c>
       <c r="O12" t="n">
-        <v>483.0672627775365</v>
+        <v>22.45180169697386</v>
       </c>
       <c r="P12" t="n">
-        <v>368.1757166004652</v>
+        <v>368.1757166004649</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.6922855705224</v>
+        <v>195.6922855705221</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>62.50747962171468</v>
+        <v>62.50747962171459</v>
       </c>
       <c r="K13" t="n">
-        <v>233.8673104701942</v>
+        <v>233.867310470194</v>
       </c>
       <c r="L13" t="n">
-        <v>355.3569473847328</v>
+        <v>355.3569473847327</v>
       </c>
       <c r="M13" t="n">
-        <v>385.1681400284492</v>
+        <v>385.1681400284489</v>
       </c>
       <c r="N13" t="n">
-        <v>381.499214088921</v>
+        <v>381.4992140889208</v>
       </c>
       <c r="O13" t="n">
-        <v>336.1981953709574</v>
+        <v>336.1981953709573</v>
       </c>
       <c r="P13" t="n">
-        <v>263.9173712951758</v>
+        <v>263.9173712951757</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.44484923259095</v>
+        <v>98.44484923259084</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35738,10 +35738,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793793</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
         <v>333.8472147104634</v>
@@ -35972,16 +35972,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>428.8975893793793</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>164.3333852708091</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094306</v>
@@ -36215,10 +36215,10 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,13 +36373,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q23" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>313.4727607777241</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O24" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380626</v>
@@ -36610,7 +36610,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q26" t="n">
         <v>367.2547334404112</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>49.32163785977567</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O27" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,13 +36841,13 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
         <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q29" t="n">
         <v>367.2547334404112</v>
@@ -36914,7 +36914,7 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284119</v>
@@ -36923,10 +36923,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P30" t="n">
-        <v>223.0469591689864</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>115.9477158137821</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404117</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
         <v>127.3573607845842</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>115.9477158137821</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845848</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>462.4975654015653</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>265.843491231155</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M40" t="n">
         <v>427.0564862552921</v>
@@ -37801,7 +37801,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845848</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>151.6307503934893</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O42" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>265.8434912311551</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2708559913274</v>
+        <v>395.2708559913273</v>
       </c>
       <c r="M43" t="n">
         <v>427.0564862552921</v>
@@ -38105,16 +38105,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O45" t="n">
-        <v>46.86803812978999</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>83.37217397760978</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K46" t="n">
         <v>265.843491231155</v>
@@ -38181,19 +38181,19 @@
         <v>395.2708559913273</v>
       </c>
       <c r="M46" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N46" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O46" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P46" t="n">
         <v>297.0573375600852</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
